--- a/ch2/Study 정리.xlsx
+++ b/ch2/Study 정리.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,19 +9,284 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>작업순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명령어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;django-admin.py startproject mysite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;python manage.py migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;python manage.py createsuperuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin 계정 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 설정 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>mysite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ┬ mysite  ─┬ __init__.py
+       │           ├ settings.py
+       │           ├ urls.py
+       │           └ wsgi.py
+       └ manage.py</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mysite ┬ mysite  ─┬ __init__.py
+       │           ├ settings.py
+       │           ├ urls.py
+       │           └ wsgi.py
+       ├ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>db.sqlite3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+       └ manage.py</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mysite ┬ mysite  ─┬ __init__.py
+       │           ├ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>settings.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+       │           ├ urls.py
+       │           └ wsgi.py
+       └ manage.py</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ 기본 프로젝트 디렉토리 및 파일들 생성
+ㅇ BASE_DIR = mysite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ 기본 데이터베이스인 sqlite DB 파일 생성(타 DB 사용 시 setting.py 수정 필요)
+ㅇ 타 model 생성과 달리 makemigration 명령 수행 필요 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ App 등록(INSTALLED_APPS)
+ㅇ Template 설정(TEMPLATES)
+ㅇ DB 설정(DATABASES)
+ㅇ 언어 설정(LANGUAGE_CODE)
+ㅇ 시간 설정(TIME_ZONE)
+ㅇ Static 파일 경로 설정(STATIC_URL, STATICFILES_DIRS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 Admin 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>App 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;python manage.py startapp blog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mysite ┬ mysite  ─┬ __init__.py
+       │           ├ settings.py
+       │           ├ urls.py
+       │           └ wsgi.py
+       ├ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>blog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> ──┬ migrations ─ __init__.py
+       │          ├ __init__.py
+       │          ├ admin.py
+       │          ├ apps.py
+       │          ├ models.py
+       │          ├ tests.py
+       │          └ views.py
+       ├ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>db.sqlite3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+       └ manage.py</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,19 +309,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +635,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="4.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="81" x14ac:dyDescent="0.3">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="175.5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>